--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3287.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3287.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9107463004805115</v>
+        <v>1.221942067146301</v>
       </c>
       <c r="B1">
-        <v>2.213934436534946</v>
+        <v>3.559767484664917</v>
       </c>
       <c r="C1">
-        <v>4.027044308785214</v>
+        <v>2.464468955993652</v>
       </c>
       <c r="D1">
-        <v>2.933704856562183</v>
+        <v>1.287385702133179</v>
       </c>
       <c r="E1">
-        <v>1.280550743129295</v>
+        <v>0.9550935029983521</v>
       </c>
     </row>
   </sheetData>
